--- a/all_weather.xlsx
+++ b/all_weather.xlsx
@@ -19,10 +19,10 @@
     <t>price</t>
   </si>
   <si>
-    <t>rain</t>
+    <t>temp</t>
   </si>
   <si>
-    <t>temp</t>
+    <t>rain</t>
   </si>
   <si>
     <t>wind</t>
@@ -416,7 +416,7 @@
       <c r="B2">
         <v>12480</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>5.619354838709679</v>
       </c>
       <c r="E2">
@@ -430,7 +430,7 @@
       <c r="B3">
         <v>12480</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>4.424731182795698</v>
       </c>
       <c r="E3">
@@ -444,7 +444,7 @@
       <c r="B4">
         <v>10800</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>4.420430107526882</v>
       </c>
       <c r="E4">
@@ -458,7 +458,7 @@
       <c r="B5">
         <v>12480</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>0.8602150537634409</v>
       </c>
       <c r="E5">
@@ -472,8 +472,11 @@
       <c r="B6">
         <v>14480</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>-2.781720430107527</v>
+      </c>
+      <c r="E6">
+        <v>1.743478260869565</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -483,7 +486,7 @@
       <c r="B7">
         <v>17880</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>0.2709677419354839</v>
       </c>
       <c r="E7">
@@ -497,7 +500,7 @@
       <c r="B8">
         <v>10080</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>-5.627956989247312</v>
       </c>
       <c r="E8">
@@ -511,7 +514,7 @@
       <c r="B9">
         <v>13500</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>-0.6645161290322583</v>
       </c>
       <c r="E9">
@@ -525,7 +528,7 @@
       <c r="B10">
         <v>14280</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>0.8946236559139782</v>
       </c>
       <c r="E10">
@@ -539,7 +542,7 @@
       <c r="B11">
         <v>13500</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>-1.979569892473119</v>
       </c>
       <c r="E11">
@@ -553,7 +556,7 @@
       <c r="B12">
         <v>9480</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>1.116129032258065</v>
       </c>
       <c r="E12">
@@ -567,7 +570,7 @@
       <c r="B13">
         <v>12480</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>7.230107526881725</v>
       </c>
       <c r="E13">
@@ -581,7 +584,7 @@
       <c r="B14">
         <v>15180</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>3.203225806451613</v>
       </c>
       <c r="E14">
@@ -595,7 +598,7 @@
       <c r="B15">
         <v>15180</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>1.545161290322582</v>
       </c>
       <c r="E15">
@@ -609,7 +612,7 @@
       <c r="B16">
         <v>9900</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>3.116129032258066</v>
       </c>
       <c r="E16">
@@ -623,7 +626,7 @@
       <c r="B17">
         <v>9900</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>2.911827956989246</v>
       </c>
       <c r="E17">
@@ -637,7 +640,7 @@
       <c r="B18">
         <v>12480</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>5.060215053763443</v>
       </c>
       <c r="E18">
@@ -651,7 +654,7 @@
       <c r="B19">
         <v>14100</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>7.7247311827957</v>
       </c>
       <c r="E19">
@@ -665,7 +668,7 @@
       <c r="B20">
         <v>12960</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>5.540860215053763</v>
       </c>
       <c r="E20">
@@ -679,7 +682,7 @@
       <c r="B21">
         <v>12960</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>8.18064516129032</v>
       </c>
       <c r="E21">
@@ -693,7 +696,7 @@
       <c r="B22">
         <v>12960</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>8.468817204301075</v>
       </c>
       <c r="E22">
@@ -707,7 +710,7 @@
       <c r="B23">
         <v>15180</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <v>5.93978494623656</v>
       </c>
       <c r="E23">
@@ -721,7 +724,7 @@
       <c r="B24">
         <v>9600</v>
       </c>
-      <c r="D24">
+      <c r="C24">
         <v>11.23440860215053</v>
       </c>
       <c r="E24">
@@ -735,7 +738,7 @@
       <c r="B25">
         <v>15180</v>
       </c>
-      <c r="D25">
+      <c r="C25">
         <v>13.59462365591398</v>
       </c>
       <c r="E25">
@@ -749,7 +752,7 @@
       <c r="B26">
         <v>9720</v>
       </c>
-      <c r="D26">
+      <c r="C26">
         <v>13.24408602150538</v>
       </c>
       <c r="E26">
@@ -763,7 +766,7 @@
       <c r="B27">
         <v>15180</v>
       </c>
-      <c r="D27">
+      <c r="C27">
         <v>12.03010752688172</v>
       </c>
       <c r="E27">
@@ -778,10 +781,10 @@
         <v>10440</v>
       </c>
       <c r="C28">
+        <v>13.61290322580645</v>
+      </c>
+      <c r="D28">
         <v>15.83655913978494</v>
-      </c>
-      <c r="D28">
-        <v>13.61290322580645</v>
       </c>
       <c r="E28">
         <v>1.931182795698925</v>
@@ -794,7 +797,7 @@
       <c r="B29">
         <v>9540</v>
       </c>
-      <c r="D29">
+      <c r="C29">
         <v>12.38387096774193</v>
       </c>
       <c r="E29">
@@ -808,7 +811,7 @@
       <c r="B30">
         <v>8280</v>
       </c>
-      <c r="D30">
+      <c r="C30">
         <v>14.88064516129033</v>
       </c>
       <c r="E30">
@@ -822,7 +825,7 @@
       <c r="B31">
         <v>8820</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <v>17.71182795698925</v>
       </c>
       <c r="E31">
@@ -836,7 +839,7 @@
       <c r="B32">
         <v>12960</v>
       </c>
-      <c r="D32">
+      <c r="C32">
         <v>18.93870967741935</v>
       </c>
       <c r="E32">
@@ -850,7 +853,7 @@
       <c r="B33">
         <v>14880</v>
       </c>
-      <c r="D33">
+      <c r="C33">
         <v>17.94301075268817</v>
       </c>
       <c r="E33">
@@ -864,7 +867,7 @@
       <c r="B34">
         <v>15720</v>
       </c>
-      <c r="D34">
+      <c r="C34">
         <v>18.78817204301075</v>
       </c>
       <c r="E34">
@@ -878,7 +881,7 @@
       <c r="B35">
         <v>15720</v>
       </c>
-      <c r="D35">
+      <c r="C35">
         <v>15.81612903225806</v>
       </c>
       <c r="E35">
@@ -892,7 +895,7 @@
       <c r="B36">
         <v>15720</v>
       </c>
-      <c r="D36">
+      <c r="C36">
         <v>19.36344086021506</v>
       </c>
       <c r="E36">
@@ -906,6 +909,9 @@
       <c r="B37">
         <v>15060</v>
       </c>
+      <c r="C37">
+        <v>20.04891304347827</v>
+      </c>
       <c r="E37">
         <v>1.716129032258064</v>
       </c>
@@ -917,7 +923,7 @@
       <c r="B38">
         <v>2510</v>
       </c>
-      <c r="D38">
+      <c r="C38">
         <v>19.38602150537633</v>
       </c>
       <c r="E38">
@@ -931,7 +937,7 @@
       <c r="B39">
         <v>15540</v>
       </c>
-      <c r="D39">
+      <c r="C39">
         <v>20.74946236559139</v>
       </c>
       <c r="E39">
@@ -945,7 +951,7 @@
       <c r="B40">
         <v>10560</v>
       </c>
-      <c r="D40">
+      <c r="C40">
         <v>20.16881720430108</v>
       </c>
       <c r="E40">
@@ -959,7 +965,7 @@
       <c r="B41">
         <v>10560</v>
       </c>
-      <c r="D41">
+      <c r="C41">
         <v>20.2752688172043</v>
       </c>
       <c r="E41">
@@ -973,7 +979,7 @@
       <c r="B42">
         <v>14880</v>
       </c>
-      <c r="D42">
+      <c r="C42">
         <v>19.3</v>
       </c>
       <c r="E42">
@@ -987,7 +993,7 @@
       <c r="B43">
         <v>14880</v>
       </c>
-      <c r="D43">
+      <c r="C43">
         <v>22.43118279569891</v>
       </c>
       <c r="E43">
@@ -1001,7 +1007,7 @@
       <c r="B44">
         <v>13020</v>
       </c>
-      <c r="D44">
+      <c r="C44">
         <v>23.8516129032258</v>
       </c>
       <c r="E44">
@@ -1015,7 +1021,7 @@
       <c r="B45">
         <v>13260</v>
       </c>
-      <c r="D45">
+      <c r="C45">
         <v>23.67526881720431</v>
       </c>
       <c r="E45">
@@ -1029,7 +1035,7 @@
       <c r="B46">
         <v>13260</v>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>22.21612903225805</v>
       </c>
       <c r="E46">
@@ -1043,7 +1049,7 @@
       <c r="B47">
         <v>14400</v>
       </c>
-      <c r="D47">
+      <c r="C47">
         <v>25.4236559139785</v>
       </c>
       <c r="E47">
@@ -1057,7 +1063,7 @@
       <c r="B48">
         <v>14400</v>
       </c>
-      <c r="D48">
+      <c r="C48">
         <v>25.24731182795698</v>
       </c>
       <c r="E48">
@@ -1071,7 +1077,7 @@
       <c r="B49">
         <v>11940</v>
       </c>
-      <c r="D49">
+      <c r="C49">
         <v>25.94086021505377</v>
       </c>
       <c r="E49">
@@ -1085,7 +1091,7 @@
       <c r="B50">
         <v>11940</v>
       </c>
-      <c r="D50">
+      <c r="C50">
         <v>26.80215053763442</v>
       </c>
       <c r="E50">
@@ -1099,6 +1105,9 @@
       <c r="B51">
         <v>15840</v>
       </c>
+      <c r="C51">
+        <v>26.25494505494505</v>
+      </c>
       <c r="E51">
         <v>1.840860215053764</v>
       </c>
@@ -1110,6 +1119,9 @@
       <c r="B52">
         <v>15840</v>
       </c>
+      <c r="C52">
+        <v>28.14945054945055</v>
+      </c>
       <c r="E52">
         <v>1.492391304347827</v>
       </c>
@@ -1121,6 +1133,9 @@
       <c r="B53">
         <v>15840</v>
       </c>
+      <c r="C53">
+        <v>27.26195652173913</v>
+      </c>
       <c r="E53">
         <v>1.213978494623656</v>
       </c>
@@ -1132,7 +1147,7 @@
       <c r="B54">
         <v>15840</v>
       </c>
-      <c r="D54">
+      <c r="C54">
         <v>25.45913978494623</v>
       </c>
       <c r="E54">
@@ -1146,7 +1161,7 @@
       <c r="B55">
         <v>15300</v>
       </c>
-      <c r="D55">
+      <c r="C55">
         <v>27.10752688172042</v>
       </c>
       <c r="E55">
@@ -1160,7 +1175,7 @@
       <c r="B56">
         <v>14940</v>
       </c>
-      <c r="D56">
+      <c r="C56">
         <v>28.4731182795699</v>
       </c>
       <c r="E56">
@@ -1174,8 +1189,11 @@
       <c r="B57">
         <v>15060</v>
       </c>
-      <c r="D57">
+      <c r="C57">
         <v>25.72365591397849</v>
+      </c>
+      <c r="E57">
+        <v>1.471739130434783</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1186,10 +1204,10 @@
         <v>15060</v>
       </c>
       <c r="C58">
+        <v>23.05053763440861</v>
+      </c>
+      <c r="D58">
         <v>38.7752688172043</v>
-      </c>
-      <c r="D58">
-        <v>23.05053763440861</v>
       </c>
       <c r="E58">
         <v>2.097849462365592</v>
@@ -1202,7 +1220,7 @@
       <c r="B59">
         <v>13260</v>
       </c>
-      <c r="D59">
+      <c r="C59">
         <v>24.54673913043478</v>
       </c>
       <c r="E59">
@@ -1217,6 +1235,9 @@
         <v>15600</v>
       </c>
       <c r="C60">
+        <v>25.31521739130434</v>
+      </c>
+      <c r="D60">
         <v>26.55053763440861</v>
       </c>
       <c r="E60">
@@ -1230,7 +1251,7 @@
       <c r="B61">
         <v>14700</v>
       </c>
-      <c r="D61">
+      <c r="C61">
         <v>27.82903225806452</v>
       </c>
       <c r="E61">
@@ -1244,7 +1265,7 @@
       <c r="B62">
         <v>13080</v>
       </c>
-      <c r="D62">
+      <c r="C62">
         <v>23.64301075268817</v>
       </c>
       <c r="E62">
@@ -1258,6 +1279,9 @@
       <c r="B63">
         <v>15300</v>
       </c>
+      <c r="C63">
+        <v>21.73260869565217</v>
+      </c>
       <c r="E63">
         <v>1.441935483870967</v>
       </c>
@@ -1269,7 +1293,7 @@
       <c r="B64">
         <v>15300</v>
       </c>
-      <c r="D64">
+      <c r="C64">
         <v>21.25268817204301</v>
       </c>
       <c r="E64">
@@ -1284,10 +1308,10 @@
         <v>15000</v>
       </c>
       <c r="C65">
+        <v>20.59892473118279</v>
+      </c>
+      <c r="D65">
         <v>49.03118279569893</v>
-      </c>
-      <c r="D65">
-        <v>20.59892473118279</v>
       </c>
       <c r="E65">
         <v>1.958064516129032</v>
@@ -1300,7 +1324,7 @@
       <c r="B66">
         <v>15000</v>
       </c>
-      <c r="D66">
+      <c r="C66">
         <v>20.24408602150537</v>
       </c>
       <c r="E66">
@@ -1314,7 +1338,7 @@
       <c r="B67">
         <v>10800</v>
       </c>
-      <c r="D67">
+      <c r="C67">
         <v>20.62043010752689</v>
       </c>
       <c r="E67">
@@ -1328,7 +1352,7 @@
       <c r="B68">
         <v>15000</v>
       </c>
-      <c r="D68">
+      <c r="C68">
         <v>18.17096774193548</v>
       </c>
       <c r="E68">
@@ -1342,7 +1366,7 @@
       <c r="B69">
         <v>14940</v>
       </c>
-      <c r="D69">
+      <c r="C69">
         <v>21.61397849462366</v>
       </c>
       <c r="E69">
@@ -1356,7 +1380,7 @@
       <c r="B70">
         <v>14280</v>
       </c>
-      <c r="D70">
+      <c r="C70">
         <v>19.84086021505377</v>
       </c>
       <c r="E70">
@@ -1370,7 +1394,7 @@
       <c r="B71">
         <v>14340</v>
       </c>
-      <c r="D71">
+      <c r="C71">
         <v>20.74408602150538</v>
       </c>
       <c r="E71">
@@ -1384,7 +1408,7 @@
       <c r="B72">
         <v>15000</v>
       </c>
-      <c r="D72">
+      <c r="C72">
         <v>13.06666666666666</v>
       </c>
       <c r="E72">
@@ -1398,7 +1422,7 @@
       <c r="B73">
         <v>15060</v>
       </c>
-      <c r="D73">
+      <c r="C73">
         <v>15.39247311827957</v>
       </c>
       <c r="E73">
@@ -1412,6 +1436,9 @@
       <c r="B74">
         <v>15060</v>
       </c>
+      <c r="C74">
+        <v>15.22608695652174</v>
+      </c>
       <c r="E74">
         <v>1.549462365591399</v>
       </c>
@@ -1423,7 +1450,7 @@
       <c r="B75">
         <v>14340</v>
       </c>
-      <c r="D75">
+      <c r="C75">
         <v>12.81612903225806</v>
       </c>
       <c r="E75">
@@ -1437,7 +1464,7 @@
       <c r="B76">
         <v>14340</v>
       </c>
-      <c r="D76">
+      <c r="C76">
         <v>12.6752688172043</v>
       </c>
       <c r="E76">
@@ -1451,7 +1478,7 @@
       <c r="B77">
         <v>9480</v>
       </c>
-      <c r="D77">
+      <c r="C77">
         <v>13.20752688172043</v>
       </c>
       <c r="E77">
@@ -1465,7 +1492,7 @@
       <c r="B78">
         <v>12120</v>
       </c>
-      <c r="D78">
+      <c r="C78">
         <v>9.759139784946234</v>
       </c>
       <c r="E78">
@@ -1479,7 +1506,7 @@
       <c r="B79">
         <v>15060</v>
       </c>
-      <c r="D79">
+      <c r="C79">
         <v>9.31505376344086</v>
       </c>
       <c r="E79">
@@ -1493,7 +1520,7 @@
       <c r="B80">
         <v>12840</v>
       </c>
-      <c r="D80">
+      <c r="C80">
         <v>8.254838709677417</v>
       </c>
       <c r="E80">
@@ -1507,6 +1534,9 @@
       <c r="B81">
         <v>12840</v>
       </c>
+      <c r="C81">
+        <v>3.211956521739131</v>
+      </c>
       <c r="E81">
         <v>1.538709677419355</v>
       </c>
@@ -1518,7 +1548,7 @@
       <c r="B82">
         <v>11700</v>
       </c>
-      <c r="D82">
+      <c r="C82">
         <v>3.136559139784946</v>
       </c>
       <c r="E82">
@@ -1532,7 +1562,7 @@
       <c r="B83">
         <v>12900</v>
       </c>
-      <c r="D83">
+      <c r="C83">
         <v>2.463440860215054</v>
       </c>
       <c r="E83">
@@ -1546,7 +1576,7 @@
       <c r="B84">
         <v>13980</v>
       </c>
-      <c r="D84">
+      <c r="C84">
         <v>4.125806451612903</v>
       </c>
       <c r="E84">
@@ -1560,7 +1590,7 @@
       <c r="B85">
         <v>13980</v>
       </c>
-      <c r="D85">
+      <c r="C85">
         <v>2.308602150537634</v>
       </c>
       <c r="E85">
@@ -1574,7 +1604,7 @@
       <c r="B86">
         <v>13980</v>
       </c>
-      <c r="D86">
+      <c r="C86">
         <v>2.650537634408602</v>
       </c>
       <c r="E86">
@@ -1588,6 +1618,9 @@
       <c r="B87">
         <v>14340</v>
       </c>
+      <c r="C87">
+        <v>-2.649999999999999</v>
+      </c>
       <c r="E87">
         <v>4.196774193548388</v>
       </c>
@@ -1599,7 +1632,7 @@
       <c r="B88">
         <v>15840</v>
       </c>
-      <c r="D88">
+      <c r="C88">
         <v>-3.717204301075268</v>
       </c>
       <c r="E88">
@@ -1613,6 +1646,9 @@
       <c r="B89">
         <v>14700</v>
       </c>
+      <c r="C89">
+        <v>-0.07934782608695647</v>
+      </c>
       <c r="E89">
         <v>1.8</v>
       </c>
@@ -1624,6 +1660,9 @@
       <c r="B90">
         <v>15840</v>
       </c>
+      <c r="C90">
+        <v>0.01333333333333334</v>
+      </c>
       <c r="E90">
         <v>1.575268817204301</v>
       </c>
@@ -1635,7 +1674,7 @@
       <c r="B91">
         <v>11700</v>
       </c>
-      <c r="D91">
+      <c r="C91">
         <v>0.3892473118279572</v>
       </c>
       <c r="E91">
